--- a/touki_test.xlsx
+++ b/touki_test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
   <si>
     <t>text</t>
   </si>
@@ -52,6 +52,18 @@
   </si>
   <si>
     <t>３１６７－１</t>
+  </si>
+  <si>
+    <t>千葉県</t>
+  </si>
+  <si>
+    <t>群馬県</t>
+  </si>
+  <si>
+    <t>埼玉県</t>
+  </si>
+  <si>
+    <t>region</t>
   </si>
 </sst>
 </file>
@@ -387,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -400,76 +412,103 @@
     <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/touki_test.xlsx
+++ b/touki_test.xlsx
@@ -63,7 +63,7 @@
     <t>埼玉県</t>
   </si>
   <si>
-    <t>region</t>
+    <t>pre</t>
   </si>
 </sst>
 </file>
@@ -402,113 +402,114 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="2"/>
+    <col min="2" max="2" width="32.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
+      <c r="A2" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="2" t="s">
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="B8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="2" t="s">
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
